--- a/root_node/multidim_env/datos_verificacion_softplus_1como7.xlsx
+++ b/root_node/multidim_env/datos_verificacion_softplus_1como7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\67450_2_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\4523592_2_14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EC74E6-C554-4C90-9ED8-7B2CD05389F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B718A92D-AC0E-4F15-A2A4-65F8CDE8984F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="3105" windowWidth="31020" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,15 +375,15 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="1">
-        <v>0.22369933128356931</v>
+        <v>0.24349355697631839</v>
       </c>
       <c r="F1" s="1">
-        <v>1.9936178749151209E+21</v>
+        <v>6.8453503627472561</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -415,10 +415,10 @@
         <v>3</v>
       </c>
       <c r="J1" s="1">
-        <v>0.19979262351989749</v>
+        <v>0.1991569995880127</v>
       </c>
       <c r="K1" s="1">
-        <v>1.9709301438238451E+21</v>
+        <v>4.769440559743984</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
@@ -441,10 +441,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.25959348678588873</v>
+        <v>0.27017521858215332</v>
       </c>
       <c r="F2" s="1">
-        <v>2.5085675461794972E+21</v>
+        <v>116.8706288789393</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -456,10 +456,10 @@
         <v>3</v>
       </c>
       <c r="J2" s="1">
-        <v>0.1934354305267334</v>
+        <v>0.21186923980712891</v>
       </c>
       <c r="K2" s="1">
-        <v>4.6379249208315578E+21</v>
+        <v>146.43416276098091</v>
       </c>
       <c r="L2" t="s">
         <v>1</v>
@@ -482,10 +482,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0.44713854789733892</v>
+        <v>0.4782264232635498</v>
       </c>
       <c r="F3" s="1">
-        <v>2.1685983528957371E+21</v>
+        <v>5.2810547232555534</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -497,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="1">
-        <v>0.32458186149597168</v>
+        <v>0.4254302978515625</v>
       </c>
       <c r="K3" s="1">
-        <v>2.1670457949398371E+21</v>
+        <v>3.8998200370204281</v>
       </c>
       <c r="L3" t="s">
         <v>1</v>
@@ -523,10 +523,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0.58788585662841797</v>
+        <v>0.53431534767150879</v>
       </c>
       <c r="F4" s="1">
-        <v>190.9375118578219</v>
+        <v>154.6068660583758</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -538,10 +538,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="1">
-        <v>0.51149916648864746</v>
+        <v>0.47763395309448242</v>
       </c>
       <c r="K4" s="1">
-        <v>4.3575042352334517E+23</v>
+        <v>9465.7381456937201</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.40771937370300287</v>
+        <v>0.56968307495117188</v>
       </c>
       <c r="F5" s="1">
-        <v>2.4514679853457898E+21</v>
+        <v>35.730728120396222</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -579,10 +579,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>0.30425620079040527</v>
+        <v>0.35885977745056152</v>
       </c>
       <c r="K5" s="1">
-        <v>2.2927967416814191E+21</v>
+        <v>11.669640712581449</v>
       </c>
       <c r="L5" t="s">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.5679011344909668</v>
+        <v>0.38771247863769531</v>
       </c>
       <c r="F6" s="1">
-        <v>1.4113864819210251E+21</v>
+        <v>107.03095986533209</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="1">
-        <v>0.25654149055480963</v>
+        <v>0.17759799957275391</v>
       </c>
       <c r="K6" s="1">
-        <v>3.052552424620917E+21</v>
+        <v>117.4171342698677</v>
       </c>
       <c r="L6" t="s">
         <v>1</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0.76624822616577148</v>
+        <v>1.0024087429046631</v>
       </c>
       <c r="F7" s="1">
-        <v>2.19537471414334E+21</v>
+        <v>21.86862663375264</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>3</v>
       </c>
       <c r="J7" s="1">
-        <v>0.65198230743408203</v>
+        <v>0.79981088638305664</v>
       </c>
       <c r="K7" s="1">
-        <v>2.011095337608734E+21</v>
+        <v>4.9709899323345521</v>
       </c>
       <c r="L7" t="s">
         <v>1</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1.3416774272918699</v>
+        <v>1.256764888763428</v>
       </c>
       <c r="F8" s="1">
-        <v>133.3828111095317</v>
+        <v>125.232061524407</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
@@ -702,10 +702,10 @@
         <v>3</v>
       </c>
       <c r="J8" s="1">
-        <v>0.81588530540466309</v>
+        <v>0.85553431510925293</v>
       </c>
       <c r="K8" s="1">
-        <v>216.31374663646821</v>
+        <v>207.90187542845561</v>
       </c>
       <c r="L8" t="s">
         <v>1</v>
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0.45731329917907709</v>
+        <v>0.62282609939575195</v>
       </c>
       <c r="F9" s="1">
-        <v>3.612777368897367E+21</v>
+        <v>229.73671160488891</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -743,10 +743,10 @@
         <v>3</v>
       </c>
       <c r="J9" s="1">
-        <v>0.39778518676757813</v>
+        <v>0.56766581535339355</v>
       </c>
       <c r="K9" s="1">
-        <v>2.2331551685384929E+21</v>
+        <v>15.39402780851333</v>
       </c>
       <c r="L9" t="s">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0.11881279945373539</v>
+        <v>0.69449782371520996</v>
       </c>
       <c r="F10" s="1">
-        <v>4.3302024867198691E+20</v>
+        <v>101.38963432230641</v>
       </c>
       <c r="G10" t="s">
         <v>1</v>
@@ -784,10 +784,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="1">
-        <v>0.52951931953430176</v>
+        <v>0.49321651458740229</v>
       </c>
       <c r="K10" s="1">
-        <v>1.1088771173798051E+21</v>
+        <v>103.0653869658736</v>
       </c>
       <c r="L10" t="s">
         <v>1</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1.72768235206604</v>
+        <v>1.703316926956177</v>
       </c>
       <c r="F11" s="1">
-        <v>4.3524193315976878E+21</v>
+        <v>997.7396172161865</v>
       </c>
       <c r="G11" t="s">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>3</v>
       </c>
       <c r="J11" s="1">
-        <v>1.5268764495849609</v>
+        <v>1.5665304660797119</v>
       </c>
       <c r="K11" s="1">
-        <v>8.7031050370179859</v>
+        <v>18.99058289399003</v>
       </c>
       <c r="L11" t="s">
         <v>1</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1.998426198959351</v>
+        <v>1.4801309108734131</v>
       </c>
       <c r="F12" s="1">
-        <v>6.2356084879238732E+20</v>
+        <v>107.30524878087451</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
@@ -866,10 +866,10 @@
         <v>3</v>
       </c>
       <c r="J12" s="1">
-        <v>1.1956286430358889</v>
+        <v>0.90033459663391113</v>
       </c>
       <c r="K12" s="1">
-        <v>115.6106445226624</v>
+        <v>115.3965735958607</v>
       </c>
       <c r="L12" t="s">
         <v>1</v>
